--- a/test.xlsx
+++ b/test.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <v>12932</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
